--- a/uploads/student_teacher_template.xlsx
+++ b/uploads/student_teacher_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\python\python_flask\bunot\form_filling_v17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\python\python_flask\bunot\form_filling_v23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B185A35-D5DF-488F-87C3-CF330BF1CC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C058CE71-AF5D-495E-8711-71BF451060A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>Student Teacher</t>
   </si>
@@ -103,23 +103,26 @@
     <t>Dune</t>
   </si>
   <si>
-    <t>zasa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Term_9 2025 </t>
-  </si>
-  <si>
-    <t>15/u/6961</t>
-  </si>
-  <si>
     <t>waswa</t>
+  </si>
+  <si>
+    <t>15/u/696678</t>
+  </si>
+  <si>
+    <t>15/u/696199787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Term_1 2025 </t>
+  </si>
+  <si>
+    <t>Bachelor in Pre-Primary Education</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +134,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -168,12 +177,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,7 +489,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,18 +618,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
-        <v>27</v>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -637,15 +647,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
@@ -668,5 +678,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>